--- a/Departments/LBRL.xlsx
+++ b/Departments/LBRL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D71CFF-FDFA-46B3-87C1-DF091749A519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2283E0-A6AF-43F7-B0D4-987C9FD33D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11265" xr2:uid="{13E9591D-3AC8-4494-BE23-8501F84868F8}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" xr2:uid="{13E9591D-3AC8-4494-BE23-8501F84868F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>LBRL 751 - Co-op II</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I4"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,97 +470,97 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/LBRL.xlsx
+++ b/Departments/LBRL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2283E0-A6AF-43F7-B0D4-987C9FD33D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF01659-1344-4294-8AB8-D6806FBFF0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" xr2:uid="{13E9591D-3AC8-4494-BE23-8501F84868F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{13E9591D-3AC8-4494-BE23-8501F84868F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -496,7 +496,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -548,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
